--- a/stocklist.xlsx
+++ b/stocklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>ABB</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>AAP</t>
@@ -428,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,25 +509,25 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="H2">
-        <v>10.3</v>
+        <v>8.65</v>
       </c>
       <c r="I2">
-        <v>7.49</v>
+        <v>6.29</v>
       </c>
       <c r="J2">
-        <v>8.81</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K2">
-        <v>14.68</v>
+        <v>13.48</v>
       </c>
       <c r="L2">
-        <v>7.05</v>
+        <v>8.25</v>
       </c>
       <c r="M2">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -588,25 +591,25 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="H4">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="I4">
-        <v>9.09</v>
+        <v>7.92</v>
       </c>
       <c r="J4">
-        <v>21.86</v>
+        <v>18.95</v>
       </c>
       <c r="K4">
-        <v>63.29</v>
+        <v>62.12</v>
       </c>
       <c r="L4">
-        <v>93.41</v>
+        <v>94.58</v>
       </c>
       <c r="M4">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -661,34 +664,34 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>171.73</v>
+        <v>128.01</v>
       </c>
       <c r="E6">
-        <v>31.54</v>
+        <v>58.75</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>4.49</v>
+        <v>0.82</v>
       </c>
       <c r="H6">
-        <v>2.61</v>
+        <v>0.64</v>
       </c>
       <c r="I6">
-        <v>22.45</v>
+        <v>4.09</v>
       </c>
       <c r="J6">
-        <v>11.69</v>
+        <v>23.4</v>
       </c>
       <c r="K6">
-        <v>53.98</v>
+        <v>62.84</v>
       </c>
       <c r="L6">
-        <v>149.28</v>
+        <v>123.92</v>
       </c>
       <c r="M6">
-        <v>2.77</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -702,34 +705,34 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>44.97</v>
+        <v>171.73</v>
       </c>
       <c r="E7">
-        <v>10.11</v>
+        <v>31.54</v>
       </c>
       <c r="F7">
-        <v>98.33</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <v>0.77</v>
+        <v>4.49</v>
       </c>
       <c r="H7">
-        <v>1.71</v>
+        <v>2.61</v>
       </c>
       <c r="I7">
-        <v>3.84</v>
+        <v>22.45</v>
       </c>
       <c r="J7">
-        <v>11.21</v>
+        <v>11.69</v>
       </c>
       <c r="K7">
-        <v>13.95</v>
+        <v>53.98</v>
       </c>
       <c r="L7">
-        <v>41.13</v>
+        <v>149.28</v>
       </c>
       <c r="M7">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -743,33 +746,74 @@
         <v>5</v>
       </c>
       <c r="D8">
+        <v>44.97</v>
+      </c>
+      <c r="E8">
+        <v>10.11</v>
+      </c>
+      <c r="F8">
+        <v>98.33</v>
+      </c>
+      <c r="G8">
+        <v>0.74</v>
+      </c>
+      <c r="H8">
+        <v>1.65</v>
+      </c>
+      <c r="I8">
+        <v>3.71</v>
+      </c>
+      <c r="J8">
+        <v>14.23</v>
+      </c>
+      <c r="K8">
+        <v>13.82</v>
+      </c>
+      <c r="L8">
+        <v>41.26</v>
+      </c>
+      <c r="M8">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>147.71</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>29.04</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>91.67</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>1.82</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>1.23</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>9.109999999999999</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>12.88</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>38.15</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>138.6</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>3.63</v>
       </c>
     </row>
